--- a/schema/Siscoex2/issues_metadados_siscoex2.xlsx
+++ b/schema/Siscoex2/issues_metadados_siscoex2.xlsx
@@ -4221,7 +4221,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Total number of cells in schema</t>
+          <t>Total number of cells in schema (sum of columns x rows for each table)</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -4399,7 +4399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4448,6 +4448,26 @@
           <t>limit</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_VALUE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_SOURCE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_CONFIDENCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_DDL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4478,6 +4498,24 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>DSC_GERACAO_DEBITO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ALTER TABLE SISAGUA.PEDIDO RENAME COLUMN UID_GERACAO_DEBITO TO DSC_GERACAO_DEBITO;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4508,6 +4546,24 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Sequencia de grafica.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SISAGUA.GRAFICA.SEQ_GRAFICA IS 'Sequencia de grafica.';</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4538,6 +4594,24 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Codigo de cnpj.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SISAGUA.GRAFICA.COD_CNPJ IS 'Codigo de cnpj.';</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4568,6 +4642,24 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Nome de grafica.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SISAGUA.GRAFICA.NOM_GRAFICA IS 'Nome de grafica.';</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4598,6 +4690,24 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Data de inicio.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SISAGUA.GRAFICA.DAT_INICIO IS 'Data de inicio.';</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4628,6 +4738,24 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Data de fim.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SISAGUA.GRAFICA.DAT_FIM IS 'Data de fim.';</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4658,6 +4786,24 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Status de ativa.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SISAGUA.GRAFICA.STA_ATIVA IS 'Status de ativa.';</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4688,6 +4834,24 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Nome de usuario.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SISAGUA.GRAFICA.NOM_USUARIO IS 'Nome de usuario.';</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4718,6 +4882,24 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Nome de senha.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SISAGUA.GRAFICA.NOM_SENHA IS 'Nome de senha.';</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4748,6 +4930,24 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Nome de url.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SISAGUA.GRAFICA.NOM_URL IS 'Nome de url.';</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4778,6 +4978,24 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Sequencia de grafica.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SISAGUA.PEDIDO.SEQ_GRAFICA IS 'Sequencia de grafica.';</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4808,6 +5026,24 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Sequencia de grafica.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SISAGUA.PEDIDO_GRAFICA.SEQ_GRAFICA IS 'Sequencia de grafica.';</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
